--- a/Students Project List.xlsx
+++ b/Students Project List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Xebia\xebia_training_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E2699A-3944-47D1-B5B0-5E6C9BE2D771}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E406E15-DA63-495A-A6A0-764F9E4E9F61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F15F2A7C-F46E-4A1D-88A1-E4620DC87E6B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Project 1</t>
   </si>
@@ -55,28 +55,13 @@
     <t>Face Emotion detection - Identifying whether the customer is happy or sad while exiting from bank</t>
   </si>
   <si>
-    <t>Automatic caption generation with language translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day 1 </t>
-  </si>
-  <si>
     <t>Project research, dataset search, project plan</t>
   </si>
   <si>
-    <t>Day 2</t>
-  </si>
-  <si>
     <t>Implementation phase 1</t>
   </si>
   <si>
     <t>Implementation phase 2</t>
-  </si>
-  <si>
-    <t>Day 3</t>
-  </si>
-  <si>
-    <t>Day 4</t>
   </si>
   <si>
     <t>Project report and finalizing project</t>
@@ -89,12 +74,6 @@
 </t>
   </si>
   <si>
-    <t>Objective: to develop a solution which can generate caption in preferred language of the listner if the speaker is speaking in english.
-Problem - Because of language gap, professionals find it sometime difficult to communicate with people from different geography.
-Solution - develop a model which can accept speech in english and generate text in preferred language (e.g. accepting speech in english and generating text in arabic.)
-Technical implementaion - you need to club, speech to text generation code with language translation code.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Objective - to develop a solution which can identify the facial emotions from human faces.
 Problem - A bank wants to monitor whether custoemrs visting the bank branch are leaving happily or sad?
 Solution - to develop an emotion detection model using relevant data to identify whether a human is happy, neutral or sad?
@@ -102,18 +81,6 @@
 </t>
   </si>
   <si>
-    <t>Project 5</t>
-  </si>
-  <si>
-    <t>Day 1</t>
-  </si>
-  <si>
-    <t>Create a list of code files from this course which are helpful for your project</t>
-  </si>
-  <si>
-    <t>Review those codes</t>
-  </si>
-  <si>
     <t>If needed, find some datasets from either kaggle / any other source</t>
   </si>
   <si>
@@ -154,12 +121,6 @@
   </si>
   <si>
     <t xml:space="preserve">Execute the relevant code, </t>
-  </si>
-  <si>
-    <t>Design the project flow - steps</t>
-  </si>
-  <si>
-    <t>combine the steps</t>
   </si>
   <si>
     <t>Complete the technical implementation of the project</t>
@@ -184,10 +145,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Chatbot - Question Answering agent - for KPRIET students
+    <t>Chatbot - Question Answering agent - for KPRIET students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 Problem Statement - Students often find it difficult to get the administrations, exam related information quickly.
 Solution - develop a chabot application deisgned to answer questions related to common information, queries available on diffirent portals like - examination, administrations, placements, etc.
 </t>
+  </si>
+  <si>
+    <t>Phase 1</t>
+  </si>
+  <si>
+    <t>Phase 2</t>
+  </si>
+  <si>
+    <t>Phase 3</t>
+  </si>
+  <si>
+    <t>Phase 4</t>
+  </si>
+  <si>
+    <t>Create a list of code files from this course which are helpful for your project, Review those codes</t>
+  </si>
+  <si>
+    <t>Design the project flow - steps, combine the steps</t>
   </si>
 </sst>
 </file>
@@ -542,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93AF0780-C2AC-497D-8ADD-5A5B7D728E58}">
-  <dimension ref="A2:B30"/>
+  <dimension ref="A2:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,12 +540,12 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -576,7 +558,7 @@
     </row>
     <row r="5" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -589,124 +571,97 @@
     </row>
     <row r="7" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>43</v>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
       <c r="B14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -730,48 +685,48 @@
   <sheetData>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Students Project List.xlsx
+++ b/Students Project List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Xebia\xebia_training_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E406E15-DA63-495A-A6A0-764F9E4E9F61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85CF63A-72EE-404A-9D64-02AD3CD54997}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F15F2A7C-F46E-4A1D-88A1-E4620DC87E6B}"/>
   </bookViews>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93AF0780-C2AC-497D-8ADD-5A5B7D728E58}">
   <dimension ref="A2:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:A40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
